--- a/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>234,07%</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>147,64%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-42,67%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 12,95</t>
+          <t>-5,73; 18,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 7,42</t>
+          <t>-4,52; 14,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 5,23</t>
+          <t>-11,46; 9,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 2009,28</t>
+          <t>-21,52; 7,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 377,57</t>
+          <t>-77,22; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-69,71; 259,71</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-90,73; 591,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-86,53; 157,7</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>255,43%</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>110,3%</t>
+          <t>193,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>243,85%</t>
+          <t>156,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>354,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>500,6%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 11,08</t>
+          <t>1,29; 11,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,05</t>
+          <t>0,73; 10,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,12</t>
+          <t>3,14; 12,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,46; 798,44</t>
+          <t>5,54; 16,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 366,82</t>
+          <t>9,45; 1065,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,78; 800,56</t>
+          <t>-2,71; 675,03</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61,23; 1871,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>116,2; 2620,42</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>304,55%</t>
+          <t>-33,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>123,32%</t>
+          <t>367,43%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47,04%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,21</t>
+          <t>-6,1; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,84</t>
+          <t>2,07; 11,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 8,28</t>
+          <t>-3,31; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 218,6</t>
+          <t>-3,41; 8,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,8; 1381,49</t>
+          <t>-85,37; 284,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 528,0</t>
+          <t>-18,45; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-59,69; 455,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-40,19; 252,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>146,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>133,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>140,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,06; 340,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,16; 285,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,65; 334,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>75,73%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>202,46%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>117,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 6,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 9,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 7,1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 8,75</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; 256,85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54,44; 660,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 325,13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 241,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,76</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>94,83%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>147,64%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-42,67%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.988374314333559</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.250476732485502</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.015495907846085</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.840577342223764</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.9323670286326332</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.44392684219589</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1406174063238616</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4903253784865432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,73; 18,67</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 14,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,46; 9,96</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,52; 7,89</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-77,22; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-90,73; 591,81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-86,53; 157,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.201609347771083</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.317045607706357</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.02245763614614</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-22.84106957216192</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7836639315191839</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.9194767662745171</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8799277236149737</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.34105070956977</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.79791470483548</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.688622440350079</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.671677520170954</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>14.41169342570552</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>4.761922991964566</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.253750368723693</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,3</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>193,43%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>156,34%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>354,31%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>500,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 11,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 10,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 12,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,54; 16,08</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>9,45; 1065,72</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 675,03</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>61,23; 1871,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>116,2; 2620,42</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.704296979478652</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.322599672466089</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.108499649227068</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.72132826418293</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>2.275249065735225</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.82070368728636</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3.675033999378118</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>5.197582614673458</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-33,27%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>367,43%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,42%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>47,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.936162110441572</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.367776426729613</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.138217448451704</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.807089732077303</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.252949852275187</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.08815633387178577</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.6221656614087701</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1.154526534392915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,1; 2,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 11,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 6,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 8,31</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-85,37; 284,59</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,45; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-59,69; 455,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-40,19; 252,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.24905598792333</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.23723370318775</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.93268240120153</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.84170490798016</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>12.19443938733296</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.872026183654054</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>19.19336446144983</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>27.08908557591782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +825,209 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.851648424594018</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.975138120719993</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.559714404138831</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.695451084791477</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.5140870148085492</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.247316793916071</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3555363455791744</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4370016006045727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.20834178306209</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.8009795794706749</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.385761934410418</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.824162796310094</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4456194985010429</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6595450183160143</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4540796186977161</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.86081263710506</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.98364837051211</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.512597138826191</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.372480198973756</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.345434051592602</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>4.084415018799219</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.358627261588786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>75,73%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>202,46%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>117,6%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>92,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 6,34</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 9,61</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 7,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 8,75</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 256,85</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>54,44; 660,21</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 325,13</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>13,29; 241,9</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.622532017753555</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.001105702014507</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.893670453268674</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.905428304090448</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.6123508185699775</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.877395219762751</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.10646495291047</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9136708320961172</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.522135667305505</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.589581727823218</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5438378337755992</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.9615324207350836</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3162245393036325</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3533068158516716</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.05456714916623382</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1178090141094753</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.116553193369492</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.14127003807543</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.949598403410226</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.864020967055602</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.349625195932441</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>5.902402092783331</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.140185849414003</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.430218987812958</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
